--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1686520.575986504</v>
+        <v>-1689329.391693242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>240.0610115018264</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1603092314733</v>
+        <v>13.16030923147326</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.5336584557159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757993</v>
+        <v>15.28980726757976</v>
       </c>
       <c r="S2" t="n">
-        <v>160.1994850723024</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7173697524019</v>
       </c>
       <c r="U2" t="n">
-        <v>188.9924746437636</v>
+        <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>33.01938019215363</v>
+        <v>33.01938019215364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321226</v>
+        <v>28.98666974321216</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>63.25978525406501</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.82268736773474</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.2686478538544</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.8860352114712</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>348.6234373283736</v>
       </c>
       <c r="H5" t="n">
-        <v>211.9998632544022</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>106.5121739073622</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>60.94125916411682</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>264.1027704444945</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>96.16962720955837</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>73.16740231845036</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>172.1581850089404</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>60.11729550773547</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>131.2944603446586</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389246</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.5551354674071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>75.7590545620421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748051</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>93.62264337260697</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>81.13054509253692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.852068818652</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096042</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808201</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.051033373376</v>
+        <v>1373.275051743613</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.088516432965</v>
+        <v>1130.789181539748</v>
       </c>
       <c r="D2" t="n">
-        <v>855.822817826214</v>
+        <v>772.5234829329977</v>
       </c>
       <c r="E2" t="n">
-        <v>470.0345652279697</v>
+        <v>386.7352303347535</v>
       </c>
       <c r="F2" t="n">
-        <v>470.0345652279697</v>
+        <v>386.7352303347535</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>373.4419886868006</v>
       </c>
       <c r="H2" t="n">
         <v>52.70091953961285</v>
@@ -4328,25 +4328,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>53.48303737322868</v>
+        <v>53.4830373732289</v>
       </c>
       <c r="K2" t="n">
-        <v>426.2977059541157</v>
+        <v>105.3937475086632</v>
       </c>
       <c r="L2" t="n">
-        <v>551.1447547025747</v>
+        <v>551.1447547025723</v>
       </c>
       <c r="M2" t="n">
-        <v>1140.550125725371</v>
+        <v>1140.55012572537</v>
       </c>
       <c r="N2" t="n">
-        <v>1724.860694309848</v>
+        <v>1724.860694309846</v>
       </c>
       <c r="O2" t="n">
-        <v>2231.420957296527</v>
+        <v>2231.420957296526</v>
       </c>
       <c r="P2" t="n">
-        <v>2626.084039162239</v>
+        <v>2626.084039162238</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2619.60172721541</v>
       </c>
       <c r="S2" t="n">
-        <v>2457.784065526216</v>
+        <v>2619.60172721541</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.784065526216</v>
+        <v>2403.725596152378</v>
       </c>
       <c r="U2" t="n">
-        <v>2266.882575987061</v>
+        <v>2150.014223783547</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.81968864349</v>
+        <v>2150.014223783547</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.051033373376</v>
+        <v>2150.014223783547</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.051033373376</v>
+        <v>2150.014223783547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.051033373376</v>
+        <v>1759.874891807735</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>188.2402911151024</v>
       </c>
       <c r="H3" t="n">
-        <v>86.05382882461652</v>
+        <v>86.05382882461653</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>159.1790215932829</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>205.9673160579325</v>
+        <v>99.48921400426269</v>
       </c>
       <c r="L3" t="n">
-        <v>682.3344350053991</v>
+        <v>575.8563329517295</v>
       </c>
       <c r="M3" t="n">
-        <v>863.0098960354281</v>
+        <v>863.009896035427</v>
       </c>
       <c r="N3" t="n">
-        <v>1502.682790266695</v>
+        <v>1502.682790266694</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.44283999358</v>
+        <v>2021.442839993579</v>
       </c>
       <c r="P3" t="n">
         <v>2420.790446915861</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.2441810625371</v>
+        <v>266.7163319358526</v>
       </c>
       <c r="C4" t="n">
-        <v>368.3079981346302</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D4" t="n">
-        <v>368.3079981346302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>368.3079981346302</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>221.4180506367198</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>141.1905938405664</v>
+        <v>141.1905938405665</v>
       </c>
       <c r="L4" t="n">
-        <v>309.9533456201947</v>
+        <v>309.9533456201951</v>
       </c>
       <c r="M4" t="n">
-        <v>498.2791281824876</v>
+        <v>498.2791281824881</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861234</v>
+        <v>687.5615609861241</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153078</v>
+        <v>846.3782284153087</v>
       </c>
       <c r="P4" t="n">
-        <v>958.7526415992046</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="Q4" t="n">
-        <v>958.7526415992046</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="R4" t="n">
-        <v>919.53780587422</v>
+        <v>958.7526415992057</v>
       </c>
       <c r="S4" t="n">
-        <v>919.53780587422</v>
+        <v>749.3903710397568</v>
       </c>
       <c r="T4" t="n">
-        <v>919.53780587422</v>
+        <v>749.3903710397568</v>
       </c>
       <c r="U4" t="n">
-        <v>919.53780587422</v>
+        <v>749.3903710397568</v>
       </c>
       <c r="V4" t="n">
-        <v>758.0367602060672</v>
+        <v>494.70588283387</v>
       </c>
       <c r="W4" t="n">
-        <v>758.0367602060672</v>
+        <v>494.70588283387</v>
       </c>
       <c r="X4" t="n">
-        <v>758.0367602060672</v>
+        <v>266.7163319358526</v>
       </c>
       <c r="Y4" t="n">
-        <v>537.2441810625371</v>
+        <v>266.7163319358526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.796664213988</v>
+        <v>917.2725296772262</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.834147273576</v>
+        <v>917.2725296772262</v>
       </c>
       <c r="D5" t="n">
-        <v>810.5684486668258</v>
+        <v>917.2725296772262</v>
       </c>
       <c r="E5" t="n">
-        <v>810.5684486668258</v>
+        <v>531.4842770789819</v>
       </c>
       <c r="F5" t="n">
-        <v>399.5825438772183</v>
+        <v>524.5387763297784</v>
       </c>
       <c r="G5" t="n">
-        <v>386.5351661540498</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4568,19 +4568,19 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>323.9039731279416</v>
+        <v>507.319769103204</v>
       </c>
       <c r="L5" t="n">
-        <v>463.2326289691948</v>
+        <v>1060.133027349403</v>
       </c>
       <c r="M5" t="n">
-        <v>1094.950439952506</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>2319.158506392561</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W5" t="n">
-        <v>1911.262422475068</v>
+        <v>2067.477459978239</v>
       </c>
       <c r="X5" t="n">
-        <v>1537.796664213988</v>
+        <v>1694.01170171716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.796664213988</v>
+        <v>1303.872369741348</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1836.821331225751</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2386.257339978474</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603.8534709574102</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="C7" t="n">
-        <v>434.9172880295033</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="D7" t="n">
-        <v>284.8006486171676</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="E7" t="n">
-        <v>177.2125941652866</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="F7" t="n">
-        <v>177.2125941652866</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="G7" t="n">
         <v>177.2125941652866</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.635600998958</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="X7" t="n">
-        <v>824.6460501009403</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="Y7" t="n">
-        <v>603.8534709574102</v>
+        <v>345.8194391699032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1231.484971591045</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="C8" t="n">
-        <v>862.5224546506331</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5224546506331</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7342020523889</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>174.2021121466298</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9039731279416</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L8" t="n">
-        <v>876.7172313741407</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.435042357452</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N8" t="n">
-        <v>1702.769255249435</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O8" t="n">
-        <v>2249.930460016512</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
         <v>2600.061856959047</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.689901892058</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.689901892058</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.689901892058</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.689901892058</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.224143630978</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.084811655167</v>
+        <v>1561.075102391146</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>807.234042887792</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M9" t="n">
-        <v>986.7313792423969</v>
+        <v>922.8268672805889</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.905258545106</v>
+        <v>1575.000746583298</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>2124.436755336021</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.8194391699032</v>
+        <v>870.9871361687179</v>
       </c>
       <c r="C10" t="n">
-        <v>345.8194391699032</v>
+        <v>870.9871361687179</v>
       </c>
       <c r="D10" t="n">
-        <v>345.8194391699032</v>
+        <v>720.8704967563822</v>
       </c>
       <c r="E10" t="n">
-        <v>345.8194391699032</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="F10" t="n">
-        <v>345.8194391699032</v>
+        <v>500.0740822701381</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2125941652866</v>
+        <v>331.4672372655215</v>
       </c>
       <c r="H10" t="n">
         <v>177.2125941652866</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>748.260483143673</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>748.260483143673</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>748.260483143673</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.4679040001429</v>
+        <v>1052.635600998958</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356204</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232847</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408915</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.238542663356</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2203.38370831826</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1983.782243341201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.782243341201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,22 +5288,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,7 +5349,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
         <v>95.58405025273903</v>
@@ -5358,25 +5358,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.4644740681601</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602302</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396415</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614373</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.1129388983999</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5662,13 +5662,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,7 +5707,7 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
         <v>1505.299220625425</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6072,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647281</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368213</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>631.5645865368213</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>800.5007694647281</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>650.3841300523924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>502.4710364699993</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>355.5810889720889</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,13 +6889,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7129,10 +7129,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.33868158239</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7318,19 +7318,19 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7339,25 +7339,25 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7979,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.78329364497819</v>
+        <v>347.9287062161395</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>18.53739690235813</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>34.18817522824244</v>
+        <v>141.741813666291</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>185.2684807830933</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>337.6777303112998</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>118.5475437099928</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>241.8152239323318</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>290.7829505319953</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>172.9354929867225</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>125.2118802691812</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>327.2064884897619</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645348</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>62.18178400137995</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,28 +22705,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>103.9870358445628</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6828348553325</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344521</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882003076</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>95.25976942117146</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8394148919928</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.257951202386216</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>86.11098998262963</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.02951788468772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>176.3785887617859</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>65.30341755403225</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>46.67206947361689</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26341,16 +26341,16 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798372</v>
+        <v>734303.4749798379</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024377</v>
+        <v>55134.27828024309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765846</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>128077.5968157137</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.6072856761</v>
+        <v>118923.6072856759</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670739</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707402</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707324</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980075</v>
+        <v>14888.28375980085</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980079</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980077</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.2837598008</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980079</v>
+        <v>14888.28375980084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533272</v>
+        <v>85298.15182533274</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-836973.9495542529</v>
+        <v>-837334.0325699711</v>
       </c>
       <c r="C6" t="n">
-        <v>-208487.9030596956</v>
+        <v>-208487.9030596949</v>
       </c>
       <c r="D6" t="n">
-        <v>-153353.6247794519</v>
+        <v>-153353.6247794518</v>
       </c>
       <c r="E6" t="n">
-        <v>-762636.311643698</v>
+        <v>-762671.0495691337</v>
       </c>
       <c r="F6" t="n">
-        <v>13052.03563288646</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="G6" t="n">
-        <v>13052.03563288643</v>
+        <v>13017.29770745074</v>
       </c>
       <c r="H6" t="n">
-        <v>13052.03563288641</v>
+        <v>13017.29770745066</v>
       </c>
       <c r="I6" t="n">
-        <v>13052.03563288646</v>
+        <v>13017.29770745068</v>
       </c>
       <c r="J6" t="n">
-        <v>-159308.9567673944</v>
+        <v>-159343.69469283</v>
       </c>
       <c r="K6" t="n">
-        <v>13052.0356328865</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="L6" t="n">
-        <v>-14323.85212770551</v>
+        <v>-14323.85212770556</v>
       </c>
       <c r="M6" t="n">
-        <v>-122973.7309497875</v>
+        <v>-122973.7309497874</v>
       </c>
       <c r="N6" t="n">
-        <v>5103.865865926316</v>
+        <v>5103.865865926258</v>
       </c>
       <c r="O6" t="n">
-        <v>5103.86586592636</v>
+        <v>5103.865865926258</v>
       </c>
       <c r="P6" t="n">
-        <v>5103.865865926316</v>
+        <v>5103.865865926287</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608696</v>
+        <v>532.9290355608703</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26808,25 +26808,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608696</v>
+        <v>532.9290355608703</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719549</v>
+        <v>60.54706477719475</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79.66955725194958</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>317.5336584557159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.8799231645347</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.1994850723023</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7173697524019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.91033823329138</v>
+        <v>16.91033823329132</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.5499954250393</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.41509635344511</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.689758882002977</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.0824567889061</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
         <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
-        <v>92.25160811235679</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>64.29346661756318</v>
       </c>
       <c r="H5" t="n">
-        <v>103.0410208208133</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>39.92178873920702</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>225.5817391724742</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>142.773275297217</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>116.4822359054076</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>73.26656032811881</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,7 +28068,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>79.97945831488758</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.838392322115124e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661786</v>
+        <v>2.142428283661789</v>
       </c>
       <c r="H2" t="n">
-        <v>21.94114366005127</v>
+        <v>21.9411436600513</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587107</v>
+        <v>82.59596640587118</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404396</v>
+        <v>181.8359225404399</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878431</v>
+        <v>272.5249117878435</v>
       </c>
       <c r="L2" t="n">
-        <v>338.0912513739575</v>
+        <v>338.091251373958</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635278</v>
+        <v>376.1916603635283</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244819</v>
+        <v>382.2788347244824</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788199</v>
+        <v>360.9750634788204</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0838652259196</v>
+        <v>308.08386522592</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.3581523172818</v>
+        <v>231.3581523172821</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735698</v>
+        <v>134.5793106735699</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394299</v>
+        <v>48.82058451394305</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729472</v>
+        <v>9.378479811729484</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1713942626929428</v>
+        <v>0.171394262692943</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696965</v>
+        <v>1.146300189696966</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891542</v>
+        <v>11.07084656891544</v>
       </c>
       <c r="I3" t="n">
-        <v>39.46691442597007</v>
+        <v>39.46691442597012</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643084</v>
+        <v>108.3002297643086</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740051</v>
+        <v>185.1023424740053</v>
       </c>
       <c r="L3" t="n">
-        <v>248.892942504159</v>
+        <v>248.8929425041593</v>
       </c>
       <c r="M3" t="n">
-        <v>290.4463243806739</v>
+        <v>290.4463243806742</v>
       </c>
       <c r="N3" t="n">
-        <v>298.133574337019</v>
+        <v>298.1335743370193</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968914</v>
+        <v>272.7339753968918</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8930599080108</v>
+        <v>218.8930599080111</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883354</v>
+        <v>146.3242136883356</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943087</v>
+        <v>71.17116440943097</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038001</v>
+        <v>21.29202326038004</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664519</v>
+        <v>4.620394185664525</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07541448616427403</v>
+        <v>0.07541448616427412</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228795</v>
+        <v>0.9610195723228807</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107062</v>
+        <v>8.544337652107073</v>
       </c>
       <c r="I4" t="n">
-        <v>28.90047950221897</v>
+        <v>28.900479502219</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322757</v>
+        <v>67.94408376322767</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207854</v>
+        <v>111.6530012207856</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797125</v>
+        <v>142.8774007797127</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323946</v>
+        <v>150.6441862323948</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901004</v>
+        <v>147.0622041901006</v>
       </c>
       <c r="O4" t="n">
-        <v>135.8357482770558</v>
+        <v>135.835748277056</v>
       </c>
       <c r="P4" t="n">
-        <v>116.2309490016689</v>
+        <v>116.2309490016691</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969131</v>
+        <v>80.47228436969141</v>
       </c>
       <c r="R4" t="n">
-        <v>43.21093458826328</v>
+        <v>43.21093458826333</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311781</v>
+        <v>16.74795018311783</v>
       </c>
       <c r="T4" t="n">
-        <v>4.106174536288666</v>
+        <v>4.106174536288671</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942985</v>
+        <v>0.05241924939942991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>314.3020503687028</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>693.4464364470641</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>658.2124561388956</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745949</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8454457931488</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33995,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>163.1438255932938</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>714.9328157424943</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7900180137533539</v>
+        <v>0.7900180137535813</v>
       </c>
       <c r="K2" t="n">
-        <v>376.5804733140273</v>
+        <v>52.4350607428629</v>
       </c>
       <c r="L2" t="n">
-        <v>126.1081300489485</v>
+        <v>450.2535426201102</v>
       </c>
       <c r="M2" t="n">
-        <v>595.3589606290875</v>
+        <v>595.3589606290881</v>
       </c>
       <c r="N2" t="n">
-        <v>590.2126955398751</v>
+        <v>590.2126955398755</v>
       </c>
       <c r="O2" t="n">
-        <v>511.6770333198785</v>
+        <v>511.677033319879</v>
       </c>
       <c r="P2" t="n">
-        <v>398.6495776421327</v>
+        <v>398.6495776421331</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.052462442832336</v>
+        <v>9.052462442832621</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5536384380506</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.26090349964608</v>
+        <v>47.2609034996463</v>
       </c>
       <c r="L3" t="n">
-        <v>481.178908027744</v>
+        <v>481.1789080277443</v>
       </c>
       <c r="M3" t="n">
-        <v>182.500465686898</v>
+        <v>290.0541041249469</v>
       </c>
       <c r="N3" t="n">
-        <v>646.1342365972391</v>
+        <v>646.1342365972396</v>
       </c>
       <c r="O3" t="n">
-        <v>524.0000502291765</v>
+        <v>524.0000502291768</v>
       </c>
       <c r="P3" t="n">
-        <v>403.3814211336177</v>
+        <v>403.381421133618</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.419727338163</v>
+        <v>216.4197273381631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490257</v>
+        <v>89.38350939490272</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400286</v>
+        <v>170.4674260400288</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942352</v>
+        <v>190.2280631942354</v>
       </c>
       <c r="N4" t="n">
-        <v>191.194376569329</v>
+        <v>191.1943765693292</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910955</v>
+        <v>160.4208761910956</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665624</v>
+        <v>113.5095082665626</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>268.6656066160149</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>533.9749150506759</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>228.3350462628199</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>122.7284773808252</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
@@ -35179,16 +35179,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>353.6680777197324</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>429.3987061034034</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>282.7229955395496</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998995</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>171.7058059242583</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>562.1047243637308</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>526.8707440555623</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525766</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>205.0040068187898</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>20.54758114884936</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>572.7987818204761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
